--- a/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCE9B7C3-110C-4990-89CD-28F9DD39A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE05655-D6D2-4813-9F99-492050D24155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A804706B-1D70-49BB-8020-C5E1E5421326}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A952CFA3-4C47-48E9-88FC-4A6A13C96FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="320">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -104,904 +104,892 @@
     <t>5,06%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>97,52%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2015 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
     <t>97,88%</t>
   </si>
   <si>
-    <t>91,91%</t>
+    <t>92,58%</t>
   </si>
   <si>
     <t>99,38%</t>
@@ -1010,7 +998,7 @@
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>95,15%</t>
   </si>
 </sst>
 </file>
@@ -1422,7 +1410,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB026521-4DF0-45CC-A441-536E943DC290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4718DD-C0CD-4423-BFF7-C411E792A9E9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2063,7 +2051,7 @@
         <v>962</v>
       </c>
       <c r="N14" s="7">
-        <v>640766</v>
+        <v>640765</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
@@ -2114,7 +2102,7 @@
         <v>997</v>
       </c>
       <c r="N15" s="7">
-        <v>663953</v>
+        <v>663952</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -2560,7 +2548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38C2264-82A1-4EA5-8A57-36E31A5BE4AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27F566E-FA3E-47D0-99E3-C07989E9B9B6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3111,13 @@
         <v>5569</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -3138,13 +3126,13 @@
         <v>4779</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -3153,13 +3141,13 @@
         <v>10349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3162,13 @@
         <v>334224</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H14" s="7">
         <v>433</v>
@@ -3189,13 +3177,13 @@
         <v>299371</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M14" s="7">
         <v>912</v>
@@ -3204,13 +3192,13 @@
         <v>633595</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3266,13 @@
         <v>1469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3293,13 +3281,13 @@
         <v>734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3308,13 +3296,13 @@
         <v>2203</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3317,13 @@
         <v>1515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3344,13 +3332,13 @@
         <v>4162</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3359,13 +3347,13 @@
         <v>5677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3368,13 @@
         <v>133914</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H18" s="7">
         <v>159</v>
@@ -3395,13 +3383,13 @@
         <v>111931</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M18" s="7">
         <v>348</v>
@@ -3410,13 +3398,13 @@
         <v>245845</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3472,13 @@
         <v>1469</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3505,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3514,13 +3502,13 @@
         <v>2705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3523,13 @@
         <v>8349</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -3550,13 +3538,13 @@
         <v>9636</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M21" s="7">
         <v>26</v>
@@ -3565,13 +3553,13 @@
         <v>17986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3574,13 @@
         <v>528963</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H22" s="7">
         <v>671</v>
@@ -3601,13 +3589,13 @@
         <v>466093</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M22" s="7">
         <v>1426</v>
@@ -3619,10 +3607,10 @@
         <v>74</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAD3E58-0C8D-4D76-A6D6-9E58BBE3EAEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36611F3B-BFA1-4CED-A7FC-631602286CBF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3715,7 +3703,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4010,7 +3998,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4025,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4040,7 +4028,7 @@
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4043,13 @@
         <v>1280</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4070,13 +4058,13 @@
         <v>1228</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -4085,13 +4073,13 @@
         <v>2507</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,10 +4094,10 @@
         <v>49957</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>116</v>
@@ -4121,10 +4109,10 @@
         <v>39413</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>116</v>
@@ -4136,13 +4124,13 @@
         <v>89371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4198,13 @@
         <v>678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4225,13 +4213,13 @@
         <v>2441</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>207</v>
+        <v>112</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -4240,13 +4228,13 @@
         <v>3119</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4249,13 @@
         <v>2719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -4279,10 +4267,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -4291,13 +4279,13 @@
         <v>10847</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4300,13 @@
         <v>376469</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>508</v>
@@ -4327,13 +4315,13 @@
         <v>338152</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>1047</v>
@@ -4342,13 +4330,13 @@
         <v>714622</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4410,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4437,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4452,7 +4440,7 @@
         <v>16</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4455,13 @@
         <v>2301</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4488,7 +4476,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -4497,13 +4485,13 @@
         <v>2301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4506,13 @@
         <v>137629</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H18" s="7">
         <v>202</v>
@@ -4536,7 +4524,7 @@
         <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>38</v>
@@ -4548,13 +4536,13 @@
         <v>273656</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4616,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4637,13 +4625,13 @@
         <v>2441</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>85</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -4652,13 +4640,13 @@
         <v>3119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4661,13 @@
         <v>6299</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -4688,13 +4676,13 @@
         <v>9356</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M21" s="7">
         <v>24</v>
@@ -4703,13 +4691,13 @@
         <v>15655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4712,13 @@
         <v>564056</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H22" s="7">
         <v>771</v>
@@ -4739,13 +4727,13 @@
         <v>513593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>1586</v>
@@ -4754,13 +4742,13 @@
         <v>1077649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30459747-B8EE-4719-9ADE-7D10066DE6A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E247D-8BBF-4FF8-B89B-000C3054C66C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,7 +4841,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4979,7 +4967,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4994,7 +4982,7 @@
         <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5016,7 @@
         <v>16</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5043,7 +5031,7 @@
         <v>16</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,7 +5062,7 @@
         <v>116</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>38</v>
@@ -5089,7 +5077,7 @@
         <v>116</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>38</v>
@@ -5179,7 +5167,7 @@
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5209,13 +5197,13 @@
         <v>2115</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -5224,13 +5212,13 @@
         <v>843</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5239,13 +5227,13 @@
         <v>2958</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5248,13 @@
         <v>56642</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -5275,10 +5263,10 @@
         <v>50359</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>116</v>
@@ -5290,13 +5278,13 @@
         <v>107001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,7 +5358,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5385,7 +5373,7 @@
         <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5400,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5403,13 @@
         <v>2597</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -5430,13 +5418,13 @@
         <v>11533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5445,13 +5433,13 @@
         <v>14130</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5454,13 @@
         <v>489767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>157</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>637</v>
@@ -5481,13 +5469,13 @@
         <v>438435</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="M14" s="7">
         <v>1289</v>
@@ -5496,13 +5484,13 @@
         <v>928203</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5558,13 @@
         <v>1560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5585,13 +5573,13 @@
         <v>848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -5600,13 +5588,13 @@
         <v>2408</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5609,13 @@
         <v>4802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -5642,7 +5630,7 @@
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -5651,13 +5639,13 @@
         <v>5421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5660,13 @@
         <v>168221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -5687,10 +5675,10 @@
         <v>149902</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>116</v>
@@ -5702,13 +5690,13 @@
         <v>318122</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>245</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5764,13 @@
         <v>1560</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>304</v>
+        <v>203</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5791,13 +5779,13 @@
         <v>848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -5806,13 +5794,13 @@
         <v>2408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>310</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5815,13 @@
         <v>9513</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5842,13 +5830,13 @@
         <v>12996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>313</v>
+        <v>87</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -5857,13 +5845,13 @@
         <v>22509</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5878,13 +5866,13 @@
         <v>714631</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7">
         <v>934</v>
@@ -5893,13 +5881,13 @@
         <v>639867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M22" s="7">
         <v>1896</v>
@@ -5908,13 +5896,13 @@
         <v>1354498</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE05655-D6D2-4813-9F99-492050D24155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA2BE0B2-F1D5-4D78-AEF4-A74E5D9B42FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A952CFA3-4C47-48E9-88FC-4A6A13C96FC2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6CB45ED9-EE2B-4951-A38A-C5B5B5009CB2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="311">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,91 +68,85 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Ns/Nc</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>88,28%</t>
+    <t>87,01%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -161,844 +155,823 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>0,19%</t>
   </si>
   <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
     <t>3,06%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>96,94%</t>
   </si>
   <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>95,21%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
   </si>
   <si>
     <t>0,9%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1383,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4718DD-C0CD-4423-BFF7-C411E792A9E9}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46381A87-B11F-482D-9E83-EA5B90C7CEDF}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1530,131 +1503,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3360</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2598</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>5957</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53102</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I6" s="7">
+        <v>48773</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="N6" s="7">
+        <v>101876</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1663,48 +1654,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="D7" s="7">
+        <v>56462</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I7" s="7">
+        <v>51371</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>160</v>
+      </c>
+      <c r="N7" s="7">
+        <v>107833</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1716,13 +1713,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1731,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1746,115 +1743,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>2598</v>
+        <v>12380</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>3360</v>
+        <v>10807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="N9" s="7">
-        <v>5957</v>
+        <v>23187</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>447</v>
       </c>
       <c r="D10" s="7">
-        <v>48773</v>
+        <v>297937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>78</v>
+        <v>515</v>
       </c>
       <c r="I10" s="7">
-        <v>53102</v>
+        <v>342829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
-        <v>151</v>
+        <v>962</v>
       </c>
       <c r="N10" s="7">
-        <v>101876</v>
+        <v>640766</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,54 +1860,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>77</v>
+        <v>465</v>
       </c>
       <c r="D11" s="7">
-        <v>51371</v>
+        <v>310317</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="I11" s="7">
-        <v>56462</v>
+        <v>353636</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>997</v>
       </c>
       <c r="N11" s="7">
-        <v>107833</v>
+        <v>663953</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1922,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1937,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -1952,115 +1949,115 @@
         <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>10807</v>
+        <v>3535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>12380</v>
+        <v>2514</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>23187</v>
+        <v>6050</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>515</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>342829</v>
+        <v>133046</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>447</v>
+        <v>179</v>
       </c>
       <c r="I14" s="7">
-        <v>297936</v>
+        <v>121028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>962</v>
+        <v>372</v>
       </c>
       <c r="N14" s="7">
-        <v>640765</v>
+        <v>254073</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,54 +2066,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="D15" s="7">
-        <v>353636</v>
+        <v>136581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>465</v>
+        <v>183</v>
       </c>
       <c r="I15" s="7">
-        <v>310316</v>
+        <v>123542</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>997</v>
+        <v>381</v>
       </c>
       <c r="N15" s="7">
-        <v>663952</v>
+        <v>260123</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2128,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2143,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2158,115 +2155,115 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>2514</v>
+        <v>19275</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>3535</v>
+        <v>15919</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>6050</v>
+        <v>35195</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>179</v>
+        <v>718</v>
       </c>
       <c r="D18" s="7">
-        <v>121028</v>
+        <v>484084</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H18" s="7">
-        <v>193</v>
+        <v>767</v>
       </c>
       <c r="I18" s="7">
-        <v>133046</v>
+        <v>512630</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
-        <v>372</v>
+        <v>1485</v>
       </c>
       <c r="N18" s="7">
-        <v>254073</v>
+        <v>996713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,267 +2272,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>183</v>
+        <v>746</v>
       </c>
       <c r="D19" s="7">
-        <v>123542</v>
+        <v>503359</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>198</v>
+        <v>792</v>
       </c>
       <c r="I19" s="7">
-        <v>136581</v>
+        <v>528549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>381</v>
+        <v>1538</v>
       </c>
       <c r="N19" s="7">
-        <v>260123</v>
+        <v>1031908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>25</v>
-      </c>
-      <c r="D21" s="7">
-        <v>15919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H21" s="7">
-        <v>28</v>
-      </c>
-      <c r="I21" s="7">
-        <v>19275</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M21" s="7">
-        <v>53</v>
-      </c>
-      <c r="N21" s="7">
-        <v>35195</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>767</v>
-      </c>
-      <c r="D22" s="7">
-        <v>512631</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="7">
-        <v>718</v>
-      </c>
-      <c r="I22" s="7">
-        <v>484084</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>99</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1485</v>
-      </c>
-      <c r="N22" s="7">
-        <v>996713</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>792</v>
-      </c>
-      <c r="D23" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>746</v>
-      </c>
-      <c r="I23" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2548,8 +2338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D27F566E-FA3E-47D0-99E3-C07989E9B9B6}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2D277B-7CF9-4240-8B13-597008CA4F38}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2565,7 +2355,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2668,131 +2458,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>695</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1264</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1959</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54789</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I6" s="7">
+        <v>60826</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="N6" s="7">
+        <v>115615</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,66 +2609,72 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="D7" s="7">
+        <v>55484</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I7" s="7">
+        <v>62090</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>169</v>
+      </c>
+      <c r="N7" s="7">
+        <v>117574</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2869,130 +2683,130 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>1264</v>
+        <v>4779</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>5569</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M9" s="7">
         <v>15</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>695</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="7">
-        <v>3</v>
-      </c>
       <c r="N9" s="7">
-        <v>1959</v>
+        <v>10349</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>87</v>
+        <v>433</v>
       </c>
       <c r="D10" s="7">
-        <v>60826</v>
+        <v>299371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>79</v>
+        <v>479</v>
       </c>
       <c r="I10" s="7">
-        <v>54789</v>
+        <v>334224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>166</v>
+        <v>912</v>
       </c>
       <c r="N10" s="7">
-        <v>115615</v>
+        <v>633595</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,204 +2815,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>89</v>
+        <v>441</v>
       </c>
       <c r="D11" s="7">
-        <v>62090</v>
+        <v>304653</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="I11" s="7">
-        <v>55484</v>
+        <v>339793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>169</v>
+        <v>928</v>
       </c>
       <c r="N11" s="7">
-        <v>117574</v>
+        <v>644446</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>502</v>
+        <v>1469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>502</v>
+        <v>2203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>4162</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1515</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>5569</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4779</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15</v>
-      </c>
       <c r="N13" s="7">
-        <v>10349</v>
+        <v>5677</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>479</v>
+        <v>159</v>
       </c>
       <c r="D14" s="7">
-        <v>334224</v>
+        <v>111931</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="I14" s="7">
-        <v>299371</v>
+        <v>133914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
-        <v>912</v>
+        <v>348</v>
       </c>
       <c r="N14" s="7">
-        <v>633595</v>
+        <v>245845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,54 +3021,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>487</v>
+        <v>166</v>
       </c>
       <c r="D15" s="7">
-        <v>339793</v>
+        <v>116827</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>441</v>
+        <v>193</v>
       </c>
       <c r="I15" s="7">
-        <v>304653</v>
+        <v>136898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>928</v>
+        <v>359</v>
       </c>
       <c r="N15" s="7">
-        <v>644446</v>
+        <v>253725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3263,148 +3077,148 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
+        <v>1236</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
         <v>1469</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>734</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>2203</v>
+        <v>2705</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>9636</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="7">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1515</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6</v>
-      </c>
       <c r="I17" s="7">
-        <v>4162</v>
+        <v>8349</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>5677</v>
+        <v>17986</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>189</v>
+        <v>671</v>
       </c>
       <c r="D18" s="7">
-        <v>133914</v>
+        <v>466093</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H18" s="7">
-        <v>159</v>
+        <v>755</v>
       </c>
       <c r="I18" s="7">
-        <v>111931</v>
+        <v>528963</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="M18" s="7">
-        <v>348</v>
+        <v>1426</v>
       </c>
       <c r="N18" s="7">
-        <v>245845</v>
+        <v>995055</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,267 +3227,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="D19" s="7">
-        <v>136898</v>
+        <v>476965</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>166</v>
+        <v>769</v>
       </c>
       <c r="I19" s="7">
-        <v>116827</v>
+        <v>538781</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>359</v>
+        <v>1456</v>
       </c>
       <c r="N19" s="7">
-        <v>253725</v>
+        <v>1015746</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1469</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1236</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2705</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>12</v>
-      </c>
-      <c r="D21" s="7">
-        <v>8349</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H21" s="7">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9636</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M21" s="7">
-        <v>26</v>
-      </c>
-      <c r="N21" s="7">
-        <v>17986</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>755</v>
-      </c>
-      <c r="D22" s="7">
-        <v>528963</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="7">
-        <v>671</v>
-      </c>
-      <c r="I22" s="7">
-        <v>466093</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1426</v>
-      </c>
-      <c r="N22" s="7">
-        <v>995055</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>769</v>
-      </c>
-      <c r="D23" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>687</v>
-      </c>
-      <c r="I23" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3686,8 +3293,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36611F3B-BFA1-4CED-A7FC-631602286CBF}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42105F0-E312-4D7C-B7E0-1F543D5CBCA7}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3703,7 +3310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3806,131 +3413,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1228</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1280</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2507</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39413</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="I6" s="7">
+        <v>49957</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>134</v>
+      </c>
+      <c r="N6" s="7">
+        <v>89371</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,198 +3564,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D7" s="7">
+        <v>40641</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="I7" s="7">
+        <v>51237</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>138</v>
+      </c>
+      <c r="N7" s="7">
+        <v>91878</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2441</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>3119</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>1280</v>
+        <v>8129</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>1228</v>
+        <v>2719</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="N9" s="7">
-        <v>2507</v>
+        <v>10847</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>73</v>
+        <v>508</v>
       </c>
       <c r="D10" s="7">
-        <v>49957</v>
+        <v>338152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>539</v>
       </c>
       <c r="I10" s="7">
-        <v>39413</v>
+        <v>376469</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
-        <v>134</v>
+        <v>1047</v>
       </c>
       <c r="N10" s="7">
-        <v>89371</v>
+        <v>714622</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,204 +3770,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>75</v>
+        <v>525</v>
       </c>
       <c r="D11" s="7">
-        <v>51237</v>
+        <v>348722</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>544</v>
       </c>
       <c r="I11" s="7">
-        <v>40641</v>
+        <v>379866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>138</v>
+        <v>1069</v>
       </c>
       <c r="N11" s="7">
-        <v>91878</v>
+        <v>728588</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>2441</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>190</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>3119</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2719</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>8129</v>
+        <v>2301</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>10847</v>
+        <v>2301</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>163</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>539</v>
+        <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>376469</v>
+        <v>136027</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
-        <v>508</v>
+        <v>203</v>
       </c>
       <c r="I14" s="7">
-        <v>338152</v>
+        <v>137629</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>97</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>1047</v>
+        <v>405</v>
       </c>
       <c r="N14" s="7">
-        <v>714622</v>
+        <v>273656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,204 +3976,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>544</v>
+        <v>202</v>
       </c>
       <c r="D15" s="7">
-        <v>379866</v>
+        <v>136027</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>525</v>
+        <v>206</v>
       </c>
       <c r="I15" s="7">
-        <v>348722</v>
+        <v>139930</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1069</v>
+        <v>408</v>
       </c>
       <c r="N15" s="7">
-        <v>728588</v>
+        <v>275957</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>2441</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>150</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3119</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>2301</v>
+        <v>9356</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>6299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>2301</v>
+        <v>15655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>203</v>
+        <v>771</v>
       </c>
       <c r="D18" s="7">
-        <v>137629</v>
+        <v>513593</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>238</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="H18" s="7">
-        <v>202</v>
+        <v>815</v>
       </c>
       <c r="I18" s="7">
-        <v>136027</v>
+        <v>564056</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
-        <v>405</v>
+        <v>1586</v>
       </c>
       <c r="N18" s="7">
-        <v>273656</v>
+        <v>1077649</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,267 +4182,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>206</v>
+        <v>790</v>
       </c>
       <c r="D19" s="7">
-        <v>139930</v>
+        <v>525390</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>202</v>
+        <v>825</v>
       </c>
       <c r="I19" s="7">
-        <v>136027</v>
+        <v>571033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>408</v>
+        <v>1615</v>
       </c>
       <c r="N19" s="7">
-        <v>275957</v>
+        <v>1096423</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>678</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2441</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3119</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6299</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H21" s="7">
-        <v>15</v>
-      </c>
-      <c r="I21" s="7">
-        <v>9356</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="M21" s="7">
-        <v>24</v>
-      </c>
-      <c r="N21" s="7">
-        <v>15655</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>815</v>
-      </c>
-      <c r="D22" s="7">
-        <v>564056</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H22" s="7">
-        <v>771</v>
-      </c>
-      <c r="I22" s="7">
-        <v>513593</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1586</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1077649</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>825</v>
-      </c>
-      <c r="D23" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>790</v>
-      </c>
-      <c r="I23" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4824,8 +4248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6E247D-8BBF-4FF8-B89B-000C3054C66C}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{645AF027-A69D-4740-AEB4-748C0F705C0F}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4841,7 +4265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4944,143 +4368,149 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>249</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>831</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>249</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="7">
+        <v>53847</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>59805</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>116</v>
+        <v>254</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>38</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>113652</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>116</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,52 +4519,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5146,13 +4578,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5161,13 +4593,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5176,115 +4608,115 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>2115</v>
+        <v>29841</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>843</v>
+        <v>2663</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>254</v>
+        <v>66</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>2958</v>
+        <v>32504</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>637</v>
       </c>
       <c r="D10" s="7">
-        <v>56642</v>
+        <v>430669</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>652</v>
       </c>
       <c r="I10" s="7">
-        <v>50359</v>
+        <v>513956</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>76</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
-        <v>148</v>
+        <v>1289</v>
       </c>
       <c r="N10" s="7">
-        <v>107001</v>
+        <v>944625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,204 +4725,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>643</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>460510</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1299</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>977129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1642</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>15</v>
+        <v>276</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>2398</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2597</v>
+        <v>610</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>21</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>11533</v>
+        <v>4880</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>14130</v>
+        <v>5490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>652</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>489767</v>
+        <v>148184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>157</v>
+        <v>284</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>275</v>
+        <v>112</v>
       </c>
       <c r="H14" s="7">
-        <v>637</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>438435</v>
+        <v>176827</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="M14" s="7">
-        <v>1289</v>
+        <v>458</v>
       </c>
       <c r="N14" s="7">
-        <v>928203</v>
+        <v>325012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,204 +4931,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>643</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>449968</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>1299</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>942333</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>757</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="7">
         <v>2</v>
       </c>
-      <c r="D16" s="7">
-        <v>1560</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>848</v>
+        <v>1642</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>284</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>4802</v>
+        <v>31282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>620</v>
+        <v>9741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>5421</v>
+        <v>41023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>230</v>
+        <v>933</v>
       </c>
       <c r="D18" s="7">
-        <v>168221</v>
+        <v>632699</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="H18" s="7">
-        <v>228</v>
+        <v>962</v>
       </c>
       <c r="I18" s="7">
-        <v>149902</v>
+        <v>750589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>308</v>
       </c>
       <c r="M18" s="7">
-        <v>458</v>
+        <v>1895</v>
       </c>
       <c r="N18" s="7">
-        <v>318122</v>
+        <v>1383288</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,267 +5137,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>664738</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1919</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1426710</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1560</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>848</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2408</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="7">
-        <v>13</v>
-      </c>
-      <c r="D21" s="7">
-        <v>9513</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H21" s="7">
-        <v>8</v>
-      </c>
-      <c r="I21" s="7">
-        <v>12996</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M21" s="7">
-        <v>21</v>
-      </c>
-      <c r="N21" s="7">
-        <v>22509</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="7">
-        <v>962</v>
-      </c>
-      <c r="D22" s="7">
-        <v>714631</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H22" s="7">
-        <v>934</v>
-      </c>
-      <c r="I22" s="7">
-        <v>639867</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1354498</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
-      <c r="I23" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>104</v>
+      <c r="A20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
